--- a/medicine/Enfance/Olga_Fernández/Olga_Fernández.xlsx
+++ b/medicine/Enfance/Olga_Fernández/Olga_Fernández.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olga_Fern%C3%A1ndez</t>
+          <t>Olga_Fernández</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olga Fernández Valdés est une journaliste et écrivaine cubaine née à La Havane.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Olga_Fern%C3%A1ndez</t>
+          <t>Olga_Fernández</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Olga Fernandez a étudié l'histoire et le journalisme à l'université de La Havane où elle est rédacteur en chef de la revue Alma Mater, puis elle a obtenu un doctorat de littérature à l'Université pontificale catholique de l'Équateur.
 Durant vingt ans, de 1973 à 1983, elle a travaillé comme journaliste pour le magazine Cuba Internacional de l'agence de presse latino-Américaine Prensa Latina. Elle a fait des reportages et des entrevues dans plusieurs pays européens, tout en publiant ses essais et articles dans des revues et des journaux à La Havane, Caracas, Buenos Aires, Mexico, Vienne, Varsovie, Cracovie, Moscou, Bucarest et Berlin notamment. Elle était une collaboratrice régulière de l'hebdomadaire culturel El Pais Cultural, du quotidien El País. En Équateur, ses chroniques et articles sont parus dans les revues Diners, Cultura (Banque centrale de l'Équateur), Eskeletra et Chasqui.
 Par la suite, ayant longuement fait des recherches sur l’œuvre journalistique de José Martí, elle fut chargée jusqu'en 1992 d'éditer ses textes en langues étrangères.
 Dans le même temps, elle était régulièrement invitée à donner des cours l'université des Andes (1989, 1990, 1991) et à l'université Simón Bolívar (1993) au Venezuela, ainsi qu'à l'université pontificale catholique de l'Équateur, tout en enseignant à de l'université centrale du Venezuela (1990), et à l'université de La Havane.
-Elle a aussi participé à des événements internationaux de littérature, tels que la 5e journée universitaire internationale de littérature pour enfants et adolescents à Mérida au Venezuela en avril 1989, ainsi qu’à la réunion des écrivains mexicaines et cubaines, organisée par le Collège du Mexique et par la Maison des Amériques à La Havane en avril 1990[1]. Elle a, en outre été invitée comme conférencière lors du premier Congrès latino-américain de littérature pour enfants et adolescents qui eut lieu à Montevideo en Uruguay en juin 1994. Elle a également enseigné l'écriture créative à Montevideo ainsi qu'à la Maison de la culture de Quito en Équateur.
+Elle a aussi participé à des événements internationaux de littérature, tels que la 5e journée universitaire internationale de littérature pour enfants et adolescents à Mérida au Venezuela en avril 1989, ainsi qu’à la réunion des écrivains mexicaines et cubaines, organisée par le Collège du Mexique et par la Maison des Amériques à La Havane en avril 1990. Elle a, en outre été invitée comme conférencière lors du premier Congrès latino-américain de littérature pour enfants et adolescents qui eut lieu à Montevideo en Uruguay en juin 1994. Elle a également enseigné l'écriture créative à Montevideo ainsi qu'à la Maison de la culture de Quito en Équateur.
 Depuis 1993, après avoir voyagé avec son mari, l'écrivain et journaliste Agenor Marti, et ses deux enfants, en Uruguay, puis à Quito, elle s'est installée dans la capitale équatorienne où elle a été professeur de langue et de littérature à l'université de San Francisco, à l'université pontificale catholique de l'Équateur, à l'Université des Hémisphères et dans l'Université des Amériques où elle enseigne actuellement la langue et la communication.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Olga_Fern%C3%A1ndez</t>
+          <t>Olga_Fernández</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elle a publié 22 livres. Parmi eux, plusieurs de littérature et contes pour enfants et adolescents, des essais sur le journalisme et sur techniques de communication linguistiques.
 Livres pour les enfants et les jeunes
@@ -590,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Olga_Fern%C3%A1ndez</t>
+          <t>Olga_Fernández</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,7 +624,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre 1980 et 1993, Olga Fernández a obtenu 14 prix journalistiques et littéraires, et 16 accessits.
 Liste des prix et récompenses
